--- a/calculsNetworkCalculus_modification.xlsx
+++ b/calculsNetworkCalculus_modification.xlsx
@@ -804,7 +804,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1303,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="274" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>